--- a/hasil.xlsx
+++ b/hasil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pem\MATLAB\Prak SCPK\tugas SAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pem\MATLAB\Prak SCPK\Tugas5_SPK_SAW\prak_scpk_tugas5_SPK_SAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691A5AF7-72E2-42E5-9AC9-8C82D9D98AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE64570-64FC-4722-9FD6-027454898CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2595" windowWidth="10155" windowHeight="4800" xr2:uid="{42CE88E1-EA36-4B19-86FB-00266291DE74}"/>
   </bookViews>
@@ -381,25 +381,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.8</v>
+        <v>2.0666666666666664</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1">
-        <v>3.4666666666666668</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="D1">
-        <v>2.5333333333333332</v>
+        <v>1.6</v>
       </c>
       <c r="E1">
-        <v>3.4666666666666663</v>
+        <v>2.0666666666666664</v>
       </c>
       <c r="F1">
-        <v>2.4</v>
+        <v>1.5333333333333332</v>
       </c>
       <c r="G1">
-        <v>1.7333333333333334</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
